--- a/supplementary_file_S1/dataset/data_original.xlsx
+++ b/supplementary_file_S1/dataset/data_original.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
   <si>
     <t xml:space="preserve">disease_name</t>
   </si>
@@ -38,9 +38,6 @@
   </si>
   <si>
     <t xml:space="preserve">incubation_period_days_min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">permanent_immunity</t>
   </si>
   <si>
     <t xml:space="preserve">pandemic</t>
@@ -234,13 +231,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.88"/>
@@ -248,13 +245,13 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="28.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="24.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="24.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="24.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="29.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="18.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="16.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="9.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="24.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="24.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="29.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="18.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="16.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="9.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -276,19 +273,16 @@
       <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>3.5</v>
@@ -302,19 +296,16 @@
       <c r="F2" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="G2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>10</v>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="C3" s="1" t="n">
         <v>12</v>
@@ -328,19 +319,16 @@
       <c r="F3" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="G3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>10</v>
+      <c r="G3" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>1.56</v>
@@ -354,19 +342,16 @@
       <c r="F4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>10</v>
+      <c r="G4" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>2</v>
@@ -380,19 +365,16 @@
       <c r="F5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>10</v>
+      <c r="G5" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="C6" s="1" t="n">
         <v>1.49</v>
@@ -406,19 +388,16 @@
       <c r="F6" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>10</v>
+      <c r="G6" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="C7" s="1" t="n">
         <v>1.3</v>
@@ -432,19 +411,16 @@
       <c r="F7" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>10</v>
+      <c r="G7" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="C8" s="1" t="n">
         <v>2.4</v>
@@ -458,19 +434,16 @@
       <c r="F8" s="1" t="n">
         <v>1.8</v>
       </c>
-      <c r="G8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>10</v>
+      <c r="G8" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="C9" s="1" t="n">
         <v>0.8</v>
@@ -484,19 +457,16 @@
       <c r="F9" s="1" t="n">
         <v>3.6</v>
       </c>
-      <c r="G9" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>25</v>
+      <c r="G9" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="C10" s="1" t="n">
         <v>1.35</v>
@@ -510,19 +480,16 @@
       <c r="F10" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="G10" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>25</v>
+      <c r="G10" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="C11" s="1" t="n">
         <v>1.7</v>
@@ -536,19 +503,16 @@
       <c r="F11" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>25</v>
+      <c r="G11" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="C12" s="1" t="n">
         <v>0.5</v>
@@ -562,19 +526,16 @@
       <c r="F12" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="G12" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>25</v>
+      <c r="G12" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="C13" s="1" t="n">
         <v>1.54</v>
@@ -588,19 +549,16 @@
       <c r="F13" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="G13" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>25</v>
+      <c r="G13" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="C14" s="1" t="n">
         <v>1.3</v>
@@ -614,19 +572,16 @@
       <c r="F14" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G14" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>25</v>
+      <c r="G14" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="C15" s="1" t="n">
         <v>1.5</v>
@@ -640,11 +595,8 @@
       <c r="F15" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="G15" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>25</v>
+      <c r="G15" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
